--- a/biology/Médecine/CIM-10_Chapitre_08___Maladies_de_l'oreille_et_de_l'apophyse_mastoïde/CIM-10_Chapitre_08___Maladies_de_l'oreille_et_de_l'apophyse_mastoïde.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_08___Maladies_de_l'oreille_et_de_l'apophyse_mastoïde/CIM-10_Chapitre_08___Maladies_de_l'oreille_et_de_l'apophyse_mastoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre VIII de la classification internationale des maladies[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre VIII de la classification internationale des maladies.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 08</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIM-10 Chapitre 08 : Maladies de l'oreille et de l'apophyse mastoïde  (H60-H95)
-(H60-H62) Maladies de l'oreille externe
-(H60) Otite externe
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIM-10 Chapitre 08 : Maladies de l'oreille et de l'apophyse mastoïde  (H60-H95)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(H60-H62) Maladies de l'oreille externe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(H60) Otite externe
 (H60.0) Abcès de l'oreille externe
 (H60.1) Cellulite phlegmoneuse de l'oreille externe
 (H60.2) Otite externe maligne
@@ -537,9 +586,43 @@
 (H62.2) Otite externe au cours de mycoses
 (H62.3) Otite externe au cours d'autres maladies infectieuses et parasitaires classées ailleurs
 (H62.4) Otite externe au cours d'autres maladies classées ailleurs
-(H62.8) Autres affections de l'oreille externe au cours de maladies classées ailleurs
-(H65-H75) Maladies de l'oreille moyenne et de l'apophyse mastoïde
-(H65) Otite moyenne non suppurée
+(H62.8) Autres affections de l'oreille externe au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(H65-H75) Maladies de l'oreille moyenne et de l'apophyse mastoïde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(H65) Otite moyenne non suppurée
 (H65.0) Otite moyenne séreuse aiguë
 (H65.1) Autres otites moyennes aiguës, non suppurées
 (H65.2) Otite moyenne séreuse chronique
@@ -592,9 +675,43 @@
 (H74.9) Affection de l'oreille moyenne et de l'apophyse mastoïde, sans précision
 (H75) Autres affections de l'oreille moyenne et de l'apophyse mastoïde au cours de maladies classées ailleurs
 (H75.0) Mastoïdite au cours de maladies infectieuses et parasitaires classées ailleurs
-(H75.8) Autres affections précisées de l'oreille moyenne et de l'apophyse mastoïde au cours de maladies classées ailleurs
-(H80-H83) Maladies de l'oreille interne
-(H80) Otosclérose
+(H75.8) Autres affections précisées de l'oreille moyenne et de l'apophyse mastoïde au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(H80-H83) Maladies de l'oreille interne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(H80) Otosclérose
 (H80.0) Otosclérose intéressant la fenêtre ovale, non oblitérante
 (H80.1) Otosclérose intéressant la fenêtre ovale, oblitérante
 (H80.2) Otosclérose cochléaire
@@ -614,9 +731,43 @@
 (H83.2) Troubles des fonctions labyrinthiques
 (H83.3) Conséquences du bruit sur l'oreille interne
 (H83.8) Autres maladies précisées de l'oreille interne
-(H83.9) Maladie de l'oreille interne, sans précision
-(H90-H95) Autres affections de l'oreille
-(H90) Surdité de transmission et neurosensorielle
+(H83.9) Maladie de l'oreille interne, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_08_:_Maladies_de_l'oreille_et_de_l'apophyse_mastoïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_08_:_Maladies_de_l%27oreille_et_de_l%27apophyse_masto%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(H90-H95) Autres affections de l'oreille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(H90) Surdité de transmission et neurosensorielle
 (H90.0) Surdité bilatérale de transmission
 (H90.1) Surdité unilatérale de transmission sans altération de l'audition de l'autre oreille
 (H90.2) Surdité de transmission, sans précision
